--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/0_fold/25.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/0_fold/25.xlsx
@@ -479,13 +479,13 @@
         <v>-0.25833035518824</v>
       </c>
       <c r="E2" t="n">
-        <v>-2.091331124875746</v>
+        <v>-2.093911699259067</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1520821579423441</v>
+        <v>0.155636165725755</v>
       </c>
       <c r="G2" t="n">
-        <v>0.04127115947008018</v>
+        <v>0.04163894163815927</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-0.2654051910066609</v>
       </c>
       <c r="E3" t="n">
-        <v>-2.075738502774682</v>
+        <v>-2.078424593435081</v>
       </c>
       <c r="F3" t="n">
-        <v>0.07570240151386155</v>
+        <v>0.080192027615404</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0486932841854273</v>
+        <v>0.05070297281531216</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-0.2935432766509017</v>
       </c>
       <c r="E4" t="n">
-        <v>-2.14601417307027</v>
+        <v>-2.144263700728003</v>
       </c>
       <c r="F4" t="n">
-        <v>0.02507349605768201</v>
+        <v>0.0257980818216587</v>
       </c>
       <c r="G4" t="n">
-        <v>0.08181746621893758</v>
+        <v>0.08649311812688819</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-0.3386931543888146</v>
       </c>
       <c r="E5" t="n">
-        <v>-2.234134902526153</v>
+        <v>-2.224529871708724</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.02572374750527999</v>
+        <v>-0.0298815767586715</v>
       </c>
       <c r="G5" t="n">
-        <v>0.09752353356587683</v>
+        <v>0.1032903335645297</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-0.3880106350699319</v>
       </c>
       <c r="E6" t="n">
-        <v>-2.307005175380627</v>
+        <v>-2.290378737732475</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.01636756432396479</v>
+        <v>-0.02243627505760796</v>
       </c>
       <c r="G6" t="n">
-        <v>0.1385431387598907</v>
+        <v>0.1444990141683355</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-0.4226552690021528</v>
       </c>
       <c r="E7" t="n">
-        <v>-2.201379722502075</v>
+        <v>-2.184295844346362</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.007183378773492529</v>
+        <v>-0.01182792472692899</v>
       </c>
       <c r="G7" t="n">
-        <v>0.09864151816635601</v>
+        <v>0.1040088201217389</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-0.4284261460991563</v>
       </c>
       <c r="E8" t="n">
-        <v>-1.955133398075198</v>
+        <v>-1.933179303315652</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.05077257977864599</v>
+        <v>-0.06139312852285992</v>
       </c>
       <c r="G8" t="n">
-        <v>0.1687439709897476</v>
+        <v>0.1752048607185397</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-0.4019709723110698</v>
       </c>
       <c r="E9" t="n">
-        <v>-1.592313544622141</v>
+        <v>-1.572707034547398</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.1764650328428858</v>
+        <v>-0.1895124559598802</v>
       </c>
       <c r="G9" t="n">
-        <v>0.1373269569304551</v>
+        <v>0.1418580576380164</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-0.3467518622024917</v>
       </c>
       <c r="E10" t="n">
-        <v>-1.13106713203819</v>
+        <v>-1.107247289928471</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.3135392156559211</v>
+        <v>-0.3244574056903881</v>
       </c>
       <c r="G10" t="n">
-        <v>0.2000335116275997</v>
+        <v>0.2010014557415988</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-0.269575393506327</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.4225661961486969</v>
+        <v>-0.3948398121044069</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.6217040772655843</v>
+        <v>-0.6286156983744933</v>
       </c>
       <c r="G11" t="n">
-        <v>0.237369805854732</v>
+        <v>0.2372252546543427</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-0.17671886209096</v>
       </c>
       <c r="E12" t="n">
-        <v>0.3399328470153319</v>
+        <v>0.3732308564417154</v>
       </c>
       <c r="F12" t="n">
-        <v>-1.070747806869837</v>
+        <v>-1.076112669142513</v>
       </c>
       <c r="G12" t="n">
-        <v>0.3768940400262643</v>
+        <v>0.378226106784282</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>-0.0725492771517918</v>
       </c>
       <c r="E13" t="n">
-        <v>1.153117518258478</v>
+        <v>1.19147238001578</v>
       </c>
       <c r="F13" t="n">
-        <v>-1.527270993733052</v>
+        <v>-1.527891892981981</v>
       </c>
       <c r="G13" t="n">
-        <v>0.5182523056727779</v>
+        <v>0.5150764487089508</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>0.03540243758599319</v>
       </c>
       <c r="E14" t="n">
-        <v>1.882622292493144</v>
+        <v>1.920870418132015</v>
       </c>
       <c r="F14" t="n">
-        <v>-2.073647084774113</v>
+        <v>-2.07240040691084</v>
       </c>
       <c r="G14" t="n">
-        <v>0.7421334488039806</v>
+        <v>0.7377023750874059</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>0.1434436932144941</v>
       </c>
       <c r="E15" t="n">
-        <v>2.568387825236176</v>
+        <v>2.61018202968966</v>
       </c>
       <c r="F15" t="n">
-        <v>-2.647647703106448</v>
+        <v>-2.647981939637306</v>
       </c>
       <c r="G15" t="n">
-        <v>0.9330099543543156</v>
+        <v>0.9294687549051163</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>0.2525690102136411</v>
       </c>
       <c r="E16" t="n">
-        <v>3.290204549340433</v>
+        <v>3.336264539007093</v>
       </c>
       <c r="F16" t="n">
-        <v>-3.110041376483362</v>
+        <v>-3.111607042860574</v>
       </c>
       <c r="G16" t="n">
-        <v>1.145276987958882</v>
+        <v>1.140778822967865</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>0.3649074167465122</v>
       </c>
       <c r="E17" t="n">
-        <v>3.868927783472828</v>
+        <v>3.921882316469448</v>
       </c>
       <c r="F17" t="n">
-        <v>-3.59134747020488</v>
+        <v>-3.589990091738778</v>
       </c>
       <c r="G17" t="n">
-        <v>1.374856010052265</v>
+        <v>1.371379462194801</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>0.4840050347829246</v>
       </c>
       <c r="E18" t="n">
-        <v>4.294526772183562</v>
+        <v>4.356022634337362</v>
       </c>
       <c r="F18" t="n">
-        <v>-4.000260249041141</v>
+        <v>-3.993368755314565</v>
       </c>
       <c r="G18" t="n">
-        <v>1.61147168699329</v>
+        <v>1.609291220573916</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>0.609461260452085</v>
       </c>
       <c r="E19" t="n">
-        <v>4.570147486323302</v>
+        <v>4.634967416165379</v>
       </c>
       <c r="F19" t="n">
-        <v>-4.433096556502168</v>
+        <v>-4.4353974822552</v>
       </c>
       <c r="G19" t="n">
-        <v>1.812116072181745</v>
+        <v>1.812306367432891</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>0.7376977350819358</v>
       </c>
       <c r="E20" t="n">
-        <v>4.934033481119315</v>
+        <v>5.005805286834966</v>
       </c>
       <c r="F20" t="n">
-        <v>-4.797557706496354</v>
+        <v>-4.803995419239429</v>
       </c>
       <c r="G20" t="n">
-        <v>2.056512507196045</v>
+        <v>2.059879879252371</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>0.8655918298993477</v>
       </c>
       <c r="E21" t="n">
-        <v>5.159193017988981</v>
+        <v>5.232794585734877</v>
       </c>
       <c r="F21" t="n">
-        <v>-5.116998171657059</v>
+        <v>-5.130040715408639</v>
       </c>
       <c r="G21" t="n">
-        <v>2.30181589425667</v>
+        <v>2.30284178083496</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>0.9876370242163401</v>
       </c>
       <c r="E22" t="n">
-        <v>5.342105789263017</v>
+        <v>5.416869865818794</v>
       </c>
       <c r="F22" t="n">
-        <v>-5.405077430500393</v>
+        <v>-5.416640001729845</v>
       </c>
       <c r="G22" t="n">
-        <v>2.444082331790862</v>
+        <v>2.444820335809727</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>1.099511357900487</v>
       </c>
       <c r="E23" t="n">
-        <v>5.444326055003285</v>
+        <v>5.512352947763702</v>
       </c>
       <c r="F23" t="n">
-        <v>-5.602104376155055</v>
+        <v>-5.616928803163756</v>
       </c>
       <c r="G23" t="n">
-        <v>2.591281807758592</v>
+        <v>2.597490800247887</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>1.196184253575202</v>
       </c>
       <c r="E24" t="n">
-        <v>5.477132468364209</v>
+        <v>5.550148512260426</v>
       </c>
       <c r="F24" t="n">
-        <v>-5.815946987347831</v>
+        <v>-5.831278868359585</v>
       </c>
       <c r="G24" t="n">
-        <v>2.729916777583425</v>
+        <v>2.735246264456849</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>1.271960330057773</v>
       </c>
       <c r="E25" t="n">
-        <v>5.561905343225422</v>
+        <v>5.631914478185271</v>
       </c>
       <c r="F25" t="n">
-        <v>-5.887989140403451</v>
+        <v>-5.902891332298436</v>
       </c>
       <c r="G25" t="n">
-        <v>2.819710519455628</v>
+        <v>2.828661715307582</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>1.324517450887366</v>
       </c>
       <c r="E26" t="n">
-        <v>5.59257093501096</v>
+        <v>5.661844505634652</v>
       </c>
       <c r="F26" t="n">
-        <v>-5.901487294900562</v>
+        <v>-5.910054850646842</v>
       </c>
       <c r="G26" t="n">
-        <v>2.820964516367022</v>
+        <v>2.826883186614185</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>1.352856917883926</v>
       </c>
       <c r="E27" t="n">
-        <v>5.627686508054053</v>
+        <v>5.690943821122302</v>
       </c>
       <c r="F27" t="n">
-        <v>-5.99068544923192</v>
+        <v>-5.993277612108099</v>
       </c>
       <c r="G27" t="n">
-        <v>2.8024644023999</v>
+        <v>2.811252139510485</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>1.357946256808326</v>
       </c>
       <c r="E28" t="n">
-        <v>5.593501673963678</v>
+        <v>5.658557033186979</v>
       </c>
       <c r="F28" t="n">
-        <v>-5.900512641659119</v>
+        <v>-5.897259782209852</v>
       </c>
       <c r="G28" t="n">
-        <v>2.746566392217293</v>
+        <v>2.753136457747224</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>1.342662178140974</v>
       </c>
       <c r="E29" t="n">
-        <v>5.506935632312826</v>
+        <v>5.564850040252761</v>
       </c>
       <c r="F29" t="n">
-        <v>-5.810034568787604</v>
+        <v>-5.804048197345322</v>
       </c>
       <c r="G29" t="n">
-        <v>2.628432076179315</v>
+        <v>2.634070182915174</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>1.309859814635616</v>
       </c>
       <c r="E30" t="n">
-        <v>5.372077291318416</v>
+        <v>5.424432882210469</v>
       </c>
       <c r="F30" t="n">
-        <v>-5.727448259552534</v>
+        <v>-5.723026334646111</v>
       </c>
       <c r="G30" t="n">
-        <v>2.531015545689116</v>
+        <v>2.532304917999761</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>1.263297033702071</v>
       </c>
       <c r="E31" t="n">
-        <v>5.219569065780272</v>
+        <v>5.268843337413394</v>
       </c>
       <c r="F31" t="n">
-        <v>-5.592474643550219</v>
+        <v>-5.588428734741011</v>
       </c>
       <c r="G31" t="n">
-        <v>2.380734750462455</v>
+        <v>2.384089314184569</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>1.206197875314387</v>
       </c>
       <c r="E32" t="n">
-        <v>5.007119055972681</v>
+        <v>5.056492134755437</v>
       </c>
       <c r="F32" t="n">
-        <v>-5.404648351304301</v>
+        <v>-5.400907097873128</v>
       </c>
       <c r="G32" t="n">
-        <v>2.273687572486403</v>
+        <v>2.276238260756564</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>1.142437177069798</v>
       </c>
       <c r="E33" t="n">
-        <v>4.741513239345144</v>
+        <v>4.785218935199556</v>
       </c>
       <c r="F33" t="n">
-        <v>-5.220268110882009</v>
+        <v>-5.219263876487743</v>
       </c>
       <c r="G33" t="n">
-        <v>2.124878515852735</v>
+        <v>2.125368892076841</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>1.075242748238679</v>
       </c>
       <c r="E34" t="n">
-        <v>4.499876085472452</v>
+        <v>4.54057975175591</v>
       </c>
       <c r="F34" t="n">
-        <v>-4.953084429463725</v>
+        <v>-4.955545459394403</v>
       </c>
       <c r="G34" t="n">
-        <v>1.935347495315306</v>
+        <v>1.938394049095663</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>1.008206385325052</v>
       </c>
       <c r="E35" t="n">
-        <v>4.202750788111929</v>
+        <v>4.236729469013563</v>
       </c>
       <c r="F35" t="n">
-        <v>-4.766135813071648</v>
+        <v>-4.769133878158202</v>
       </c>
       <c r="G35" t="n">
-        <v>1.878660247776988</v>
+        <v>1.881558590832895</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>0.9439559907639835</v>
       </c>
       <c r="E36" t="n">
-        <v>3.872731248813029</v>
+        <v>3.903062604067709</v>
       </c>
       <c r="F36" t="n">
-        <v>-4.511384754728195</v>
+        <v>-4.514624348402743</v>
       </c>
       <c r="G36" t="n">
-        <v>1.76301867754488</v>
+        <v>1.766030465846662</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>0.8832933864406757</v>
       </c>
       <c r="E37" t="n">
-        <v>3.571470689264153</v>
+        <v>3.598424303811004</v>
       </c>
       <c r="F37" t="n">
-        <v>-4.338676566296831</v>
+        <v>-4.342156468718017</v>
       </c>
       <c r="G37" t="n">
-        <v>1.675485301700706</v>
+        <v>1.679840135332687</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>0.8283368577814499</v>
       </c>
       <c r="E38" t="n">
-        <v>3.221339625570163</v>
+        <v>3.247302728937974</v>
       </c>
       <c r="F38" t="n">
-        <v>-4.102659526500035</v>
+        <v>-4.103335928530548</v>
       </c>
       <c r="G38" t="n">
-        <v>1.53556400916861</v>
+        <v>1.536311161997627</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>0.7788498361144315</v>
       </c>
       <c r="E39" t="n">
-        <v>2.952554902375415</v>
+        <v>2.972036988632102</v>
       </c>
       <c r="F39" t="n">
-        <v>-3.958914946205744</v>
+        <v>-3.959567256369526</v>
       </c>
       <c r="G39" t="n">
-        <v>1.410560766469096</v>
+        <v>1.410299720419448</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>0.734706970086081</v>
       </c>
       <c r="E40" t="n">
-        <v>2.682995579921197</v>
+        <v>2.701143159737159</v>
       </c>
       <c r="F40" t="n">
-        <v>-3.854782274183533</v>
+        <v>-3.85389941400394</v>
       </c>
       <c r="G40" t="n">
-        <v>1.265370369210574</v>
+        <v>1.263954743319842</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>0.6947913804868603</v>
       </c>
       <c r="E41" t="n">
-        <v>2.373143677719649</v>
+        <v>2.392015843299587</v>
       </c>
       <c r="F41" t="n">
-        <v>-3.674313150100888</v>
+        <v>-3.678344725774193</v>
       </c>
       <c r="G41" t="n">
-        <v>1.183511695342864</v>
+        <v>1.181824044830302</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>0.6563730795594289</v>
       </c>
       <c r="E42" t="n">
-        <v>2.072732737673483</v>
+        <v>2.087569668056056</v>
       </c>
       <c r="F42" t="n">
-        <v>-3.518489395763941</v>
+        <v>-3.518435112823711</v>
       </c>
       <c r="G42" t="n">
-        <v>1.048428293618734</v>
+        <v>1.046306379584328</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>0.618359712576943</v>
       </c>
       <c r="E43" t="n">
-        <v>1.810515030405282</v>
+        <v>1.827861784372673</v>
       </c>
       <c r="F43" t="n">
-        <v>-3.328301795617993</v>
+        <v>-3.326688860388333</v>
       </c>
       <c r="G43" t="n">
-        <v>0.9291735532975702</v>
+        <v>0.9238678533305389</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>0.5793866761883084</v>
       </c>
       <c r="E44" t="n">
-        <v>1.51867835523284</v>
+        <v>1.535679284176516</v>
       </c>
       <c r="F44" t="n">
-        <v>-3.254646249892206</v>
+        <v>-3.254406551066244</v>
       </c>
       <c r="G44" t="n">
-        <v>0.9047889246411829</v>
+        <v>0.9023004482800508</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>0.5386553799058028</v>
       </c>
       <c r="E45" t="n">
-        <v>1.355626430955752</v>
+        <v>1.370335277996208</v>
       </c>
       <c r="F45" t="n">
-        <v>-3.080617583195683</v>
+        <v>-3.078735977907915</v>
       </c>
       <c r="G45" t="n">
-        <v>0.782425418630634</v>
+        <v>0.7802687391176529</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>0.4970486892831961</v>
       </c>
       <c r="E46" t="n">
-        <v>1.152156283271923</v>
+        <v>1.170275806736754</v>
       </c>
       <c r="F46" t="n">
-        <v>-2.975572164880718</v>
+        <v>-2.971491795553273</v>
       </c>
       <c r="G46" t="n">
-        <v>0.6748927437958909</v>
+        <v>0.6724524511682219</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>0.454705135020387</v>
       </c>
       <c r="E47" t="n">
-        <v>0.9524133608437015</v>
+        <v>0.9672417523368003</v>
       </c>
       <c r="F47" t="n">
-        <v>-2.857482982972819</v>
+        <v>-2.854460826019533</v>
       </c>
       <c r="G47" t="n">
-        <v>0.6190593852050202</v>
+        <v>0.6165568806683229</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>0.4126373685863862</v>
       </c>
       <c r="E48" t="n">
-        <v>0.8069106841986848</v>
+        <v>0.8252052548977428</v>
       </c>
       <c r="F48" t="n">
-        <v>-2.754893105302442</v>
+        <v>-2.749117766414315</v>
       </c>
       <c r="G48" t="n">
-        <v>0.5512057099167987</v>
+        <v>0.5513728281822277</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>0.3718931482483465</v>
       </c>
       <c r="E49" t="n">
-        <v>0.6908153329830757</v>
+        <v>0.7077577095417833</v>
       </c>
       <c r="F49" t="n">
-        <v>-2.668264241821885</v>
+        <v>-2.6613257842032</v>
       </c>
       <c r="G49" t="n">
-        <v>0.4776700136039924</v>
+        <v>0.4791191851319458</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>0.33280415755403</v>
       </c>
       <c r="E50" t="n">
-        <v>0.5082185006195956</v>
+        <v>0.5228956317848609</v>
       </c>
       <c r="F50" t="n">
-        <v>-2.56755901904266</v>
+        <v>-2.561983124215829</v>
       </c>
       <c r="G50" t="n">
-        <v>0.4006089757795823</v>
+        <v>0.4010676361284968</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>0.2959587666001327</v>
       </c>
       <c r="E51" t="n">
-        <v>0.3925513137190637</v>
+        <v>0.4067618555666166</v>
       </c>
       <c r="F51" t="n">
-        <v>-2.441873885026542</v>
+        <v>-2.435284911955632</v>
       </c>
       <c r="G51" t="n">
-        <v>0.3442437663585872</v>
+        <v>0.346974991149065</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>0.2610976607754769</v>
       </c>
       <c r="E52" t="n">
-        <v>0.2847356356903095</v>
+        <v>0.3031515806040403</v>
       </c>
       <c r="F52" t="n">
-        <v>-2.371472571071543</v>
+        <v>-2.364734167434831</v>
       </c>
       <c r="G52" t="n">
-        <v>0.3160306656142523</v>
+        <v>0.3188021451693955</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>0.2278360403313534</v>
       </c>
       <c r="E53" t="n">
-        <v>0.1617134153488727</v>
+        <v>0.1763576107975935</v>
       </c>
       <c r="F53" t="n">
-        <v>-2.270023854987362</v>
+        <v>-2.26464130501506</v>
       </c>
       <c r="G53" t="n">
-        <v>0.2918491405432221</v>
+        <v>0.2950225578243422</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>0.1961558764790529</v>
       </c>
       <c r="E54" t="n">
-        <v>0.01716343480093645</v>
+        <v>0.0288617133809642</v>
       </c>
       <c r="F54" t="n">
-        <v>-2.193836223572055</v>
+        <v>-2.186831894520281</v>
       </c>
       <c r="G54" t="n">
-        <v>0.2517718627947839</v>
+        <v>0.2529185136670703</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>0.1652800556236967</v>
       </c>
       <c r="E55" t="n">
-        <v>-0.01407304273803859</v>
+        <v>-0.005338978647006401</v>
       </c>
       <c r="F55" t="n">
-        <v>-2.132126279260717</v>
+        <v>-2.122016844043618</v>
       </c>
       <c r="G55" t="n">
-        <v>0.1873453317892098</v>
+        <v>0.1876582210963816</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>0.1349713706863593</v>
       </c>
       <c r="E56" t="n">
-        <v>-0.08127166321943262</v>
+        <v>-0.07211797370279777</v>
       </c>
       <c r="F56" t="n">
-        <v>-2.078009847374892</v>
+        <v>-2.069931448011364</v>
       </c>
       <c r="G56" t="n">
-        <v>0.1480389937761812</v>
+        <v>0.148022525917909</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>0.1054511018825741</v>
       </c>
       <c r="E57" t="n">
-        <v>-0.1771780301140042</v>
+        <v>-0.1667953504337221</v>
       </c>
       <c r="F57" t="n">
-        <v>-2.072738302965758</v>
+        <v>-2.066207882279817</v>
       </c>
       <c r="G57" t="n">
-        <v>0.1374105160631696</v>
+        <v>0.1395001043017084</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>0.076270479715584</v>
       </c>
       <c r="E58" t="n">
-        <v>-0.1861615517618264</v>
+        <v>-0.1759557490778011</v>
       </c>
       <c r="F58" t="n">
-        <v>-2.043008329498351</v>
+        <v>-2.033882696332847</v>
       </c>
       <c r="G58" t="n">
-        <v>0.1246009620101069</v>
+        <v>0.123687910757015</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>0.04804443994000267</v>
       </c>
       <c r="E59" t="n">
-        <v>-0.2760559305456924</v>
+        <v>-0.2693699800871802</v>
       </c>
       <c r="F59" t="n">
-        <v>-2.007765283033818</v>
+        <v>-1.998133415706613</v>
       </c>
       <c r="G59" t="n">
-        <v>0.0907460950058524</v>
+        <v>0.09158534585705773</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>0.02081527022268934</v>
       </c>
       <c r="E60" t="n">
-        <v>-0.2850120057630609</v>
+        <v>-0.2792921696565176</v>
       </c>
       <c r="F60" t="n">
-        <v>-2.045346765373003</v>
+        <v>-2.038579085543807</v>
       </c>
       <c r="G60" t="n">
-        <v>0.07076875315964651</v>
+        <v>0.07091269443935906</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-0.005857950300519275</v>
       </c>
       <c r="E61" t="n">
-        <v>-0.3022916684560101</v>
+        <v>-0.2950092155756383</v>
       </c>
       <c r="F61" t="n">
-        <v>-2.055408626777316</v>
+        <v>-2.046913041670892</v>
       </c>
       <c r="G61" t="n">
-        <v>0.07131463216533603</v>
+        <v>0.06993438167385517</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-0.03182338244326014</v>
       </c>
       <c r="E62" t="n">
-        <v>-0.3248099398415484</v>
+        <v>-0.319288937875625</v>
       </c>
       <c r="F62" t="n">
-        <v>-2.003838003796238</v>
+        <v>-1.999176989984529</v>
       </c>
       <c r="G62" t="n">
-        <v>0.05149099032967065</v>
+        <v>0.05413133693931299</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-0.05746699608763951</v>
       </c>
       <c r="E63" t="n">
-        <v>-0.3074735545256616</v>
+        <v>-0.3026191958594238</v>
       </c>
       <c r="F63" t="n">
-        <v>-2.048314639386059</v>
+        <v>-2.046642846811093</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03217907194179689</v>
+        <v>0.03424914271867979</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-0.08307081522580184</v>
       </c>
       <c r="E64" t="n">
-        <v>-0.280581541967163</v>
+        <v>-0.2758229408471746</v>
       </c>
       <c r="F64" t="n">
-        <v>-2.118364029110574</v>
+        <v>-2.116437289692727</v>
       </c>
       <c r="G64" t="n">
-        <v>0.04215432461001137</v>
+        <v>0.0420518579363177</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-0.1085663519411493</v>
       </c>
       <c r="E65" t="n">
-        <v>-0.2474152754069571</v>
+        <v>-0.2446425760104604</v>
       </c>
       <c r="F65" t="n">
-        <v>-2.201871318567534</v>
+        <v>-2.199112647346603</v>
       </c>
       <c r="G65" t="n">
-        <v>0.04508743314449278</v>
+        <v>0.0470306404206121</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-0.1340074709506776</v>
       </c>
       <c r="E66" t="n">
-        <v>-0.2771373199055667</v>
+        <v>-0.2786047890538225</v>
       </c>
       <c r="F66" t="n">
-        <v>-2.248943776557596</v>
+        <v>-2.24707497960404</v>
       </c>
       <c r="G66" t="n">
-        <v>0.01322456707049749</v>
+        <v>0.01355819368067868</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-0.1588033787544922</v>
       </c>
       <c r="E67" t="n">
-        <v>-0.2130340468586691</v>
+        <v>-0.2153163700310603</v>
       </c>
       <c r="F67" t="n">
-        <v>-2.299357380014883</v>
+        <v>-2.30038021698979</v>
       </c>
       <c r="G67" t="n">
-        <v>-0.002219844306116833</v>
+        <v>-0.004134385310428987</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-0.1826583516431941</v>
       </c>
       <c r="E68" t="n">
-        <v>-0.221686381579017</v>
+        <v>-0.2225500292572923</v>
       </c>
       <c r="F68" t="n">
-        <v>-2.392867368570512</v>
+        <v>-2.391117506148921</v>
       </c>
       <c r="G68" t="n">
-        <v>-0.0239013045231568</v>
+        <v>-0.02427640573935685</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-0.2055273012813648</v>
       </c>
       <c r="E69" t="n">
-        <v>-0.2080089104029418</v>
+        <v>-0.2090225985676971</v>
       </c>
       <c r="F69" t="n">
-        <v>-2.41276176120468</v>
+        <v>-2.406543009984557</v>
       </c>
       <c r="G69" t="n">
-        <v>0.0003589003151739559</v>
+        <v>-0.00206065500948559</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-0.2268236916374368</v>
       </c>
       <c r="E70" t="n">
-        <v>-0.1732934453237959</v>
+        <v>-0.1747133406592653</v>
       </c>
       <c r="F70" t="n">
-        <v>-2.434417604753297</v>
+        <v>-2.431319207715416</v>
       </c>
       <c r="G70" t="n">
-        <v>0.01368932662617951</v>
+        <v>0.008608687388868188</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-0.2463602467513556</v>
       </c>
       <c r="E71" t="n">
-        <v>-0.1852094655854227</v>
+        <v>-0.1814120994519893</v>
       </c>
       <c r="F71" t="n">
-        <v>-2.543783091221667</v>
+        <v>-2.540247990979236</v>
       </c>
       <c r="G71" t="n">
-        <v>0.002147187739399262</v>
+        <v>-0.002231432798975046</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-0.2639025107919019</v>
       </c>
       <c r="E72" t="n">
-        <v>-0.1878327344161161</v>
+        <v>-0.1821586423603289</v>
       </c>
       <c r="F72" t="n">
-        <v>-2.643175764704531</v>
+        <v>-2.642109623361575</v>
       </c>
       <c r="G72" t="n">
-        <v>-0.05118854568018816</v>
+        <v>-0.05727738379616402</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-0.2787067798097643</v>
       </c>
       <c r="E73" t="n">
-        <v>-0.07010706523155942</v>
+        <v>-0.06157061543979361</v>
       </c>
       <c r="F73" t="n">
-        <v>-2.682624214235242</v>
+        <v>-2.682572370977718</v>
       </c>
       <c r="G73" t="n">
-        <v>-0.08002925480089683</v>
+        <v>-0.08408278761856443</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-0.2909160700647871</v>
       </c>
       <c r="E74" t="n">
-        <v>-0.04486427818298755</v>
+        <v>-0.0367627018337431</v>
       </c>
       <c r="F74" t="n">
-        <v>-2.738439885126487</v>
+        <v>-2.738167860504657</v>
       </c>
       <c r="G74" t="n">
-        <v>-0.06692327929893456</v>
+        <v>-0.07064196566506747</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-0.3004237889621306</v>
       </c>
       <c r="E75" t="n">
-        <v>0.004792413714455589</v>
+        <v>0.01522266720752413</v>
       </c>
       <c r="F75" t="n">
-        <v>-2.745247819720349</v>
+        <v>-2.745653416970386</v>
       </c>
       <c r="G75" t="n">
-        <v>-0.07950289325686326</v>
+        <v>-0.08619189331875921</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-0.3076488101430819</v>
       </c>
       <c r="E76" t="n">
-        <v>0.1218935241260222</v>
+        <v>0.1320633414901193</v>
       </c>
       <c r="F76" t="n">
-        <v>-2.800768289004048</v>
+        <v>-2.808117833158862</v>
       </c>
       <c r="G76" t="n">
-        <v>-0.05495419593843067</v>
+        <v>-0.06134250510668983</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-0.3128337243444532</v>
       </c>
       <c r="E77" t="n">
-        <v>0.1419391770880239</v>
+        <v>0.1526835397296177</v>
       </c>
       <c r="F77" t="n">
-        <v>-2.782263295671512</v>
+        <v>-2.78542207485639</v>
       </c>
       <c r="G77" t="n">
-        <v>-0.05046700951959521</v>
+        <v>-0.05581052456858494</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-0.3158250192628174</v>
       </c>
       <c r="E78" t="n">
-        <v>0.2646253311365725</v>
+        <v>0.2756990509436102</v>
       </c>
       <c r="F78" t="n">
-        <v>-2.801066540214978</v>
+        <v>-2.806688789013241</v>
       </c>
       <c r="G78" t="n">
-        <v>-0.06376389019337962</v>
+        <v>-0.07192889829300587</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-0.3165611748990443</v>
       </c>
       <c r="E79" t="n">
-        <v>0.3557328421464904</v>
+        <v>0.373519958842494</v>
       </c>
       <c r="F79" t="n">
-        <v>-2.78475055219129</v>
+        <v>-2.785850239171467</v>
       </c>
       <c r="G79" t="n">
-        <v>-0.02539865978457328</v>
+        <v>-0.03276040235292234</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-0.3144612905082934</v>
       </c>
       <c r="E80" t="n">
-        <v>0.4002863277415825</v>
+        <v>0.4188657313966819</v>
       </c>
       <c r="F80" t="n">
-        <v>-2.719195058013055</v>
+        <v>-2.716809658246294</v>
       </c>
       <c r="G80" t="n">
-        <v>-0.01690612428153332</v>
+        <v>-0.02516323040334853</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-0.3092359024834312</v>
       </c>
       <c r="E81" t="n">
-        <v>0.6079130848374494</v>
+        <v>0.6265809269906772</v>
       </c>
       <c r="F81" t="n">
-        <v>-2.677433789276116</v>
+        <v>-2.674569601778107</v>
       </c>
       <c r="G81" t="n">
-        <v>-0.03086598873094287</v>
+        <v>-0.03773613523383299</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-0.3002422802473242</v>
       </c>
       <c r="E82" t="n">
-        <v>0.7273703188232938</v>
+        <v>0.7451702438535092</v>
       </c>
       <c r="F82" t="n">
-        <v>-2.670522778087884</v>
+        <v>-2.664810870950138</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02208122521755604</v>
+        <v>0.01720185980357158</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-0.2877573146782469</v>
       </c>
       <c r="E83" t="n">
-        <v>0.8935358881551813</v>
+        <v>0.9151203709846183</v>
       </c>
       <c r="F83" t="n">
-        <v>-2.606631147515817</v>
+        <v>-2.601289462228858</v>
       </c>
       <c r="G83" t="n">
-        <v>0.04024344312975971</v>
+        <v>0.03694926155464345</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-0.27140117518574</v>
       </c>
       <c r="E84" t="n">
-        <v>1.0518182327401</v>
+        <v>1.07307396832477</v>
       </c>
       <c r="F84" t="n">
-        <v>-2.549681634086498</v>
+        <v>-2.545622002062063</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03567452734024001</v>
+        <v>0.03142460006465954</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-0.2509219793223116</v>
       </c>
       <c r="E85" t="n">
-        <v>1.206045214745321</v>
+        <v>1.227716306310856</v>
       </c>
       <c r="F85" t="n">
-        <v>-2.513206547854934</v>
+        <v>-2.512415480737192</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04278132306570838</v>
+        <v>0.0374195103964162</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-0.2271804467047596</v>
       </c>
       <c r="E86" t="n">
-        <v>1.386093188600671</v>
+        <v>1.406559686829629</v>
       </c>
       <c r="F86" t="n">
-        <v>-2.477604258111796</v>
+        <v>-2.47508650555818</v>
       </c>
       <c r="G86" t="n">
-        <v>0.03675652662079106</v>
+        <v>0.03296525969412514</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-0.2006223353346697</v>
       </c>
       <c r="E87" t="n">
-        <v>1.487868212246912</v>
+        <v>1.509927213362859</v>
       </c>
       <c r="F87" t="n">
-        <v>-2.394132953974764</v>
+        <v>-2.391824404213272</v>
       </c>
       <c r="G87" t="n">
-        <v>0.09151093553449446</v>
+        <v>0.08852659366316622</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-0.1729974281006281</v>
       </c>
       <c r="E88" t="n">
-        <v>1.648642082796347</v>
+        <v>1.673456705529842</v>
       </c>
       <c r="F88" t="n">
-        <v>-2.246568135521662</v>
+        <v>-2.239790696961637</v>
       </c>
       <c r="G88" t="n">
-        <v>0.114205473995613</v>
+        <v>0.1099317598136393</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-0.145810705570953</v>
       </c>
       <c r="E89" t="n">
-        <v>1.750598862804259</v>
+        <v>1.771177586437739</v>
       </c>
       <c r="F89" t="n">
-        <v>-2.091231707805437</v>
+        <v>-2.085256924856012</v>
       </c>
       <c r="G89" t="n">
-        <v>0.1081129763555766</v>
+        <v>0.1046931511210502</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>-0.1208479915604459</v>
       </c>
       <c r="E90" t="n">
-        <v>1.850602676805224</v>
+        <v>1.871106380195464</v>
       </c>
       <c r="F90" t="n">
-        <v>-1.967168352868791</v>
+        <v>-1.963842455418483</v>
       </c>
       <c r="G90" t="n">
-        <v>0.1221082162042375</v>
+        <v>0.1220124586579881</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>-0.09979398407027214</v>
       </c>
       <c r="E91" t="n">
-        <v>1.87517699079208</v>
+        <v>1.895386712416127</v>
       </c>
       <c r="F91" t="n">
-        <v>-1.701966913649937</v>
+        <v>-1.699313758706083</v>
       </c>
       <c r="G91" t="n">
-        <v>0.1485519370653264</v>
+        <v>0.1474211441306355</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>-0.08372546509282672</v>
       </c>
       <c r="E92" t="n">
-        <v>1.820697046182914</v>
+        <v>1.842996356045499</v>
       </c>
       <c r="F92" t="n">
-        <v>-1.462588296043243</v>
+        <v>-1.462415688491724</v>
       </c>
       <c r="G92" t="n">
-        <v>0.1295346103643219</v>
+        <v>0.1302439481113799</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-0.07291477579259223</v>
       </c>
       <c r="E93" t="n">
-        <v>1.895643489021038</v>
+        <v>1.919542620818734</v>
       </c>
       <c r="F93" t="n">
-        <v>-1.237277498845743</v>
+        <v>-1.236559012288534</v>
       </c>
       <c r="G93" t="n">
-        <v>0.1070907493013469</v>
+        <v>0.1065839052189692</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-0.06665195603262465</v>
       </c>
       <c r="E94" t="n">
-        <v>1.911911293311262</v>
+        <v>1.933950776965554</v>
       </c>
       <c r="F94" t="n">
-        <v>-0.979907441116335</v>
+        <v>-0.9844324426171288</v>
       </c>
       <c r="G94" t="n">
-        <v>0.07851108623028637</v>
+        <v>0.07882580529948836</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-0.06329017740775905</v>
       </c>
       <c r="E95" t="n">
-        <v>1.825885031459332</v>
+        <v>1.842889010006392</v>
       </c>
       <c r="F95" t="n">
-        <v>-0.7274929888855047</v>
+        <v>-0.7356171322997889</v>
       </c>
       <c r="G95" t="n">
-        <v>0.02698864698267091</v>
+        <v>0.0331159101012819</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-0.06146064147442916</v>
       </c>
       <c r="E96" t="n">
-        <v>1.740054554144639</v>
+        <v>1.757351904537214</v>
       </c>
       <c r="F96" t="n">
-        <v>-0.5151698425786778</v>
+        <v>-0.5279543898839938</v>
       </c>
       <c r="G96" t="n">
-        <v>-0.02054857056307272</v>
+        <v>-0.0140693832139781</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-0.06027899867848154</v>
       </c>
       <c r="E97" t="n">
-        <v>1.643940204299296</v>
+        <v>1.659512089097351</v>
       </c>
       <c r="F97" t="n">
-        <v>-0.2820526706394793</v>
+        <v>-0.2945255484789771</v>
       </c>
       <c r="G97" t="n">
-        <v>-0.0409864025202234</v>
+        <v>-0.03548918746069315</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-0.05954850502846904</v>
       </c>
       <c r="E98" t="n">
-        <v>1.495048808374267</v>
+        <v>1.506971537763338</v>
       </c>
       <c r="F98" t="n">
-        <v>-0.1486886353031024</v>
+        <v>-0.1574531954279721</v>
       </c>
       <c r="G98" t="n">
-        <v>-0.1396953549244523</v>
+        <v>-0.1323567893418197</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-0.05948113087007326</v>
       </c>
       <c r="E99" t="n">
-        <v>1.318402972053818</v>
+        <v>1.330645299877505</v>
       </c>
       <c r="F99" t="n">
-        <v>-0.008699031655211452</v>
+        <v>-0.0166749643450458</v>
       </c>
       <c r="G99" t="n">
-        <v>-0.152744607803477</v>
+        <v>-0.1471437062288996</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-0.0604540811805233</v>
       </c>
       <c r="E100" t="n">
-        <v>1.136467903624609</v>
+        <v>1.143404531481265</v>
       </c>
       <c r="F100" t="n">
-        <v>0.08348864887322727</v>
+        <v>0.07926067874200972</v>
       </c>
       <c r="G100" t="n">
-        <v>-0.209221432708317</v>
+        <v>-0.2051788784628308</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-0.06200600004787815</v>
       </c>
       <c r="E101" t="n">
-        <v>1.004109017563513</v>
+        <v>1.011257897815677</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1620220352113072</v>
+        <v>0.157851397623704</v>
       </c>
       <c r="G101" t="n">
-        <v>-0.2319690342683125</v>
+        <v>-0.2299562960350439</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-0.06369931716365085</v>
       </c>
       <c r="E102" t="n">
-        <v>0.8224142578809437</v>
+        <v>0.8267117589693105</v>
       </c>
       <c r="F102" t="n">
-        <v>0.1846433831912159</v>
+        <v>0.1807228130810794</v>
       </c>
       <c r="G102" t="n">
-        <v>-0.2515224812441785</v>
+        <v>-0.2515663955329044</v>
       </c>
     </row>
   </sheetData>
